--- a/rhla_analysis/rhla1_3_normal_result/k4.xlsx
+++ b/rhla_analysis/rhla1_3_normal_result/k4.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0259932687686168</v>
+        <v>0.02599326876861668</v>
       </c>
       <c r="B2" t="n">
         <v>0.284059436246391</v>
@@ -466,12 +466,12 @@
         <v>0.09292412617220801</v>
       </c>
       <c r="D2" t="n">
-        <v>10.92819217063429</v>
+        <v>10.92819217063434</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.01143852658958855</v>
+        <v>0.01143852658958852</v>
       </c>
       <c r="B3" t="n">
         <v>0.3017962338331288</v>
@@ -480,26 +480,26 @@
         <v>0.0937766410912191</v>
       </c>
       <c r="D3" t="n">
-        <v>26.38418781207593</v>
+        <v>26.384187812076</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.009803640708013128</v>
+        <v>0.009803640708013173</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2610118390403132</v>
+        <v>0.2610118390403131</v>
       </c>
       <c r="C4" t="n">
         <v>0.1014492753623188</v>
       </c>
       <c r="D4" t="n">
-        <v>26.62397029982666</v>
+        <v>26.62397029982654</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.01984102351204571</v>
+        <v>0.01984102351204562</v>
       </c>
       <c r="B5" t="n">
         <v>0.3108305934654673</v>
@@ -508,12 +508,12 @@
         <v>0.1005967604433078</v>
       </c>
       <c r="D5" t="n">
-        <v>15.66605640463852</v>
+        <v>15.66605640463859</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.01126163825993903</v>
+        <v>0.01126163825993908</v>
       </c>
       <c r="B6" t="n">
         <v>0.2628960446602549</v>
@@ -522,12 +522,12 @@
         <v>0.09803921568627451</v>
       </c>
       <c r="D6" t="n">
-        <v>23.34438725451285</v>
+        <v>23.34438725451274</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.01386590603552249</v>
+        <v>0.01386590603552248</v>
       </c>
       <c r="B7" t="n">
         <v>0.2691897132239248</v>
@@ -536,12 +536,12 @@
         <v>0.1099744245524297</v>
       </c>
       <c r="D7" t="n">
-        <v>19.41378461200435</v>
+        <v>19.41378461200437</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.02195510757389845</v>
+        <v>0.02195510757389852</v>
       </c>
       <c r="B8" t="n">
         <v>0.2825389673917952</v>
@@ -550,12 +550,12 @@
         <v>0.08312020460358056</v>
       </c>
       <c r="D8" t="n">
-        <v>12.86894024275675</v>
+        <v>12.86894024275671</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.01537536248605003</v>
+        <v>0.01537536248604993</v>
       </c>
       <c r="B9" t="n">
         <v>0.2844392567734376</v>
@@ -564,12 +564,12 @@
         <v>0.08397271952259165</v>
       </c>
       <c r="D9" t="n">
-        <v>18.49967810719959</v>
+        <v>18.49967810719971</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.01163693074049925</v>
+        <v>0.01163693074049916</v>
       </c>
       <c r="B10" t="n">
         <v>0.2651289840876591</v>
@@ -578,12 +578,12 @@
         <v>0.1138107416879795</v>
       </c>
       <c r="D10" t="n">
-        <v>22.78341170880634</v>
+        <v>22.78341170880651</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.01011543556530394</v>
+        <v>0.01011543556530392</v>
       </c>
       <c r="B11" t="n">
         <v>0.2435833558086781</v>
@@ -592,7 +592,7 @@
         <v>0.1146632566069906</v>
       </c>
       <c r="D11" t="n">
-        <v>24.08036255444815</v>
+        <v>24.08036255444821</v>
       </c>
     </row>
   </sheetData>
